--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="471">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1330,6 +1330,403 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_064.csv</t>
+  </si>
+  <si>
+    <t>updel_065</t>
+  </si>
+  <si>
+    <t>updel_066</t>
+  </si>
+  <si>
+    <t>删除含有array字段类型的单条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array18_value52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_065.csv</t>
+  </si>
+  <si>
+    <t>删除含有array字段类型的全表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $array18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_066.csv</t>
+  </si>
+  <si>
+    <t>updel_067</t>
+  </si>
+  <si>
+    <t>updel_068</t>
+  </si>
+  <si>
+    <t>删除array字段值为null的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array3</t>
+  </si>
+  <si>
+    <t>array3_value18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $array3 where id=1543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array3</t>
+  </si>
+  <si>
+    <t>select * from $array3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_067.csv</t>
+  </si>
+  <si>
+    <t>updel_069</t>
+  </si>
+  <si>
+    <t>updel_070</t>
+  </si>
+  <si>
+    <t>updel_071</t>
+  </si>
+  <si>
+    <t>updel_072</t>
+  </si>
+  <si>
+    <t>updel_073</t>
+  </si>
+  <si>
+    <t>updel_074</t>
+  </si>
+  <si>
+    <t>updel_075</t>
+  </si>
+  <si>
+    <t>updel_076</t>
+  </si>
+  <si>
+    <t>updel_077</t>
+  </si>
+  <si>
+    <t>updel_078</t>
+  </si>
+  <si>
+    <t>updel_079</t>
+  </si>
+  <si>
+    <t>updel_080</t>
+  </si>
+  <si>
+    <t>updel_081</t>
+  </si>
+  <si>
+    <t>array1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array1_value01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array1 set class_no = array[9999,9999,99999] where id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_068.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_069.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_070.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_071.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_072.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_073.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_074.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_075.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_076.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_077.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_078.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_079.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_080.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_081.csv</t>
+  </si>
+  <si>
+    <t>select * from $array1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - int型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - int型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array1 set class_no = array[-100,-1000,-10000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - varchar型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - varchar型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array3_value03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array3_value03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array3 set user_info=array['male','lolo','172.3'] where id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array3 set user_info=array['-1']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - double型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - double型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - date型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - date型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - time型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - time型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - timestamp型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - timestamp型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - boolean型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - boolean型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array5</t>
+  </si>
+  <si>
+    <t>array5_value05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array7</t>
+  </si>
+  <si>
+    <t>array7_value07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array7_value07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array8</t>
+  </si>
+  <si>
+    <t>array8_value08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array8_value08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array9</t>
+  </si>
+  <si>
+    <t>array9_value09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array9_value09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array10</t>
+  </si>
+  <si>
+    <t>array10_value10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array10_value10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array5</t>
+  </si>
+  <si>
+    <t>select * from $array5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array7</t>
+  </si>
+  <si>
+    <t>select * from $array7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array5 set price = array[99.9999,0.0] where id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array5 set price = array[-7890.1234] where id&lt;=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array7 set run_inter=array['2000-02-02'] where id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array7 set run_inter=array['2012-12-13','2022-02-23','2032-11-01','2049-01-05']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array8 set test_time=array['18:18:18'] where id = 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array8 set test_time=array['00:00:00','08:59:59','12:30:30','22:01:02']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array9 set send_time=array['1919-05-04 18:18:18', '2049-10-01 14:00:00'] where id = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array9 set send_time=array['2000-01-01 00:00:00','2010-02-02 08:59:59','2020-03-03 12:30:30','1990-04-04 22:01:02'] where id&gt;=1 and id&lt;=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array10 set in_use=array[true, true] where id = 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array10 set in_use=array[false, false]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $array3 where id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1699,17 +2096,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
@@ -4062,6 +4459,652 @@
       </c>
       <c r="L65" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A66" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A67" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A68" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A69" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A70" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A71" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A72" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A73" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A75" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A76" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A77" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A78" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A79" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A80" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A81" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A82" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="533">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1727,6 +1727,237 @@
   <si>
     <t>select * from $array3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_082</t>
+  </si>
+  <si>
+    <t>删除map字段值为null的数据可删除成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map1_value07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $map1 where id=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $map1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_082.csv</t>
+  </si>
+  <si>
+    <t>updel_083</t>
+  </si>
+  <si>
+    <t>删除含有多个map字段的表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map2_value13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $map2 where id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $map2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_083.csv</t>
+  </si>
+  <si>
+    <t>updel_084</t>
+  </si>
+  <si>
+    <t>updel_085</t>
+  </si>
+  <si>
+    <t>map7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map7_value20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map7_value20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $map7 set age=20 where id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $map7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name,data from $map7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_084.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_085.csv</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $map7 set name='dingo'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表中含有map类型字段，更新整型字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表中含有map类型字段，更新字符型字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_086</t>
+  </si>
+  <si>
+    <t>updel_087</t>
+  </si>
+  <si>
+    <t>删除含有multiset类型字段的单条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除含有multiset类型字段的全表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset20_value47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $multiset20 where id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $multiset20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $multiset20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_086.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_087.csv</t>
+  </si>
+  <si>
+    <t>updel_088</t>
+  </si>
+  <si>
+    <t>updel_089</t>
+  </si>
+  <si>
+    <t>删除整型列值为null的行数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除字符型列值为null的行数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset1_value20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset3_value21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $multiset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $multiset3 where id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_088.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_089.csv</t>
+  </si>
+  <si>
+    <t>select * from $multiset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $multiset3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -2096,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4466,7 +4697,7 @@
         <v>361</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>363</v>
@@ -4504,7 +4735,7 @@
         <v>362</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>371</v>
@@ -4542,7 +4773,7 @@
         <v>375</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>377</v>
@@ -4580,7 +4811,7 @@
         <v>376</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>416</v>
@@ -4618,7 +4849,7 @@
         <v>385</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>417</v>
@@ -4656,7 +4887,7 @@
         <v>386</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>420</v>
@@ -4694,7 +4925,7 @@
         <v>387</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>421</v>
@@ -4732,7 +4963,7 @@
         <v>388</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>427</v>
@@ -4770,7 +5001,7 @@
         <v>389</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>428</v>
@@ -4808,7 +5039,7 @@
         <v>390</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>429</v>
@@ -4846,7 +5077,7 @@
         <v>391</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>430</v>
@@ -4884,7 +5115,7 @@
         <v>392</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>431</v>
@@ -4922,7 +5153,7 @@
         <v>393</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>432</v>
@@ -4960,7 +5191,7 @@
         <v>394</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>433</v>
@@ -4998,7 +5229,7 @@
         <v>395</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>434</v>
@@ -5036,7 +5267,7 @@
         <v>396</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>435</v>
@@ -5074,7 +5305,7 @@
         <v>397</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>436</v>
@@ -5105,6 +5336,310 @@
       </c>
       <c r="L82" s="7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A83" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A84" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A85" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A86" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A87" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A88" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="564">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1958,6 +1958,118 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>updel_090</t>
+  </si>
+  <si>
+    <t>updel_091</t>
+  </si>
+  <si>
+    <t>updel_092</t>
+  </si>
+  <si>
+    <t>updel_093</t>
+  </si>
+  <si>
+    <t>updel_094</t>
+  </si>
+  <si>
+    <t>updel_095</t>
+  </si>
+  <si>
+    <t>左边范围更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间范围更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右边范围更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左边范围删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间范围删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右边范围删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema1 set age=100 where id&lt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema1 set amount=99.99 where id&gt;=10 and id&lt;=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema1 set name='dingo' where id&gt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_090.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_091.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_092.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_093.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_094.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_095.csv</t>
+  </si>
+  <si>
+    <t>delete from $schema1 where id&lt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema1 where id&gt;=10 and id&lt;=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema1 where id&gt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2327,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2342,7 +2454,7 @@
     <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="52.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="47.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38" style="1" customWidth="1"/>
     <col min="11" max="12" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -3125,7 +3237,7 @@
         <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>545</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>345</v>
@@ -5640,6 +5752,216 @@
       </c>
       <c r="L90" s="7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A92" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A93" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A94" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A95" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A96" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="578">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2070,6 +2070,56 @@
   <si>
     <t>delete from $schema1 where id&gt;15</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_096</t>
+  </si>
+  <si>
+    <t>updel_097</t>
+  </si>
+  <si>
+    <t>两端范围删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键not between范围删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema1 where id&lt;5 or id&gt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_096.csv</t>
+  </si>
+  <si>
+    <t>delete from $schema1 where id not between 10 and 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_098</t>
+  </si>
+  <si>
+    <t>delete from $schema1 where id not between 10 and 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_097.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_098.csv</t>
   </si>
 </sst>
 </file>
@@ -2439,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96"/>
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5961,6 +6011,111 @@
         <v>560</v>
       </c>
       <c r="L96" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A97" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A98" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A99" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="L99" s="7" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -135,19 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_001.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_002.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_003.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_004.csv</t>
-  </si>
-  <si>
     <t>更新时间日期值单行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,14 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_005.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_006.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,9 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_007.csv</t>
-  </si>
-  <si>
     <t>update $schema1 set age=35,amount=1234.5678 where id between 5 and 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,24 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_008.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_009.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_010.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_011.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_012.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_013.csv</t>
-  </si>
-  <si>
     <t>update $schema1 set birthday='2022-07-13', create_time='11:48:06', update_time='2022-08-01 00:00:00' where birthday between '1999-01-01' and '2010-10-01'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,9 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_014.csv</t>
-  </si>
-  <si>
     <t>update $schema1 set name='C++', address='SH' where address not between 'beijing' and 'wuhan'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,12 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_015.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_016.csv</t>
-  </si>
-  <si>
     <t>select id,name,age from $schema1 where name='Delphi' and age=33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,18 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_017.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_018.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_019.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_020.csv</t>
-  </si>
-  <si>
     <t>delete from $schema1 where id between 25 and 30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,27 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_021.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_022.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_023.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_024.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_025.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_026.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_027.csv</t>
-  </si>
-  <si>
     <t>select * from $schema1 where id&lt;10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,15 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_028.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_029.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_030.csv</t>
-  </si>
-  <si>
     <t>delete from $schema1 where address not like '[C-D]%ing' and name not like '___[a-z]' and address not like '%[cY]ang%'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -691,36 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_031.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_032.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_033.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_034.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_035.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_036.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_037.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_038.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_039.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_040.csv</t>
-  </si>
-  <si>
     <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -737,9 +614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_041.csv</t>
-  </si>
-  <si>
     <t>22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,12 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_042.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_043.csv</t>
-  </si>
-  <si>
     <t>update $schema17 set address='BJ' where address in(' beijing haidian ','beijing changyang','CHANGping') and birthday not in('2020-11-11','1949-01-01')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -818,12 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_044.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_045.csv</t>
-  </si>
-  <si>
     <t>13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -856,9 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_046.csv</t>
-  </si>
-  <si>
     <t>update语句中使用or</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -883,12 +742,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_047.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_048.csv</t>
-  </si>
-  <si>
     <t>delete from $schema17 where amount&lt;0.0 or amount &gt;1000.0 or gmt&gt;=2147483648</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -994,30 +847,6 @@
   <si>
     <t>delete语句使用not in范围元素超过19个无重复值</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_049.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_050.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_051.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_052.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_053.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_054.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_055.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_056.csv</t>
   </si>
   <si>
     <t>delete from $schema17 where gmt not in(13989023458,-238948525329,54389385423,2147483648,13895336532,2147483647,702498643279,54389385423,13989023458,0,10,100,1000,10000,100000,1000000,10000000,100000000,1000000000,10000000000,-999)</t>
@@ -1306,170 +1135,896 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>updel_064</t>
+  </si>
+  <si>
+    <t>更新字符型字段值为整数值，可自动转型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema1 set name=123456 where id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema1 where id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_065</t>
+  </si>
+  <si>
+    <t>updel_066</t>
+  </si>
+  <si>
+    <t>删除含有array字段类型的单条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array18_value52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除含有array字段类型的全表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $array18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_067</t>
+  </si>
+  <si>
+    <t>updel_068</t>
+  </si>
+  <si>
+    <t>删除array字段值为null的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array3</t>
+  </si>
+  <si>
+    <t>array3_value18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $array3 where id=1543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array3</t>
+  </si>
+  <si>
+    <t>select * from $array3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_069</t>
+  </si>
+  <si>
+    <t>updel_070</t>
+  </si>
+  <si>
+    <t>updel_071</t>
+  </si>
+  <si>
+    <t>updel_072</t>
+  </si>
+  <si>
+    <t>updel_073</t>
+  </si>
+  <si>
+    <t>updel_074</t>
+  </si>
+  <si>
+    <t>updel_075</t>
+  </si>
+  <si>
+    <t>updel_076</t>
+  </si>
+  <si>
+    <t>updel_077</t>
+  </si>
+  <si>
+    <t>updel_078</t>
+  </si>
+  <si>
+    <t>updel_079</t>
+  </si>
+  <si>
+    <t>updel_080</t>
+  </si>
+  <si>
+    <t>updel_081</t>
+  </si>
+  <si>
+    <t>array1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array1_value01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array1 set class_no = array[9999,9999,99999] where id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - int型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - int型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array1 set class_no = array[-100,-1000,-10000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - varchar型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - varchar型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array3_value03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array3_value03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array3 set user_info=array['male','lolo','172.3'] where id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array3 set user_info=array['-1']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - double型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - double型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - date型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - date型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - time型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - time型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - timestamp型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - timestamp型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - boolean型单条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新array字段值 - boolean型整列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array5</t>
+  </si>
+  <si>
+    <t>array5_value05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array7</t>
+  </si>
+  <si>
+    <t>array7_value07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array7_value07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array8</t>
+  </si>
+  <si>
+    <t>array8_value08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array8_value08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array9</t>
+  </si>
+  <si>
+    <t>array9_value09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array9_value09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array10</t>
+  </si>
+  <si>
+    <t>array10_value10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array10_value10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array5</t>
+  </si>
+  <si>
+    <t>select * from $array5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array7</t>
+  </si>
+  <si>
+    <t>select * from $array7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array5 set price = array[99.9999,0.0] where id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array5 set price = array[-7890.1234] where id&lt;=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array7 set run_inter=array['2000-02-02'] where id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array7 set run_inter=array['2012-12-13','2022-02-23','2032-11-01','2049-01-05']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array8 set test_time=array['18:18:18'] where id = 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array8 set test_time=array['00:00:00','08:59:59','12:30:30','22:01:02']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array9 set send_time=array['1919-05-04 18:18:18', '2049-10-01 14:00:00'] where id = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array9 set send_time=array['2000-01-01 00:00:00','2010-02-02 08:59:59','2020-03-03 12:30:30','1990-04-04 22:01:02'] where id&gt;=1 and id&lt;=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array10 set in_use=array[true, true] where id = 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $array10 set in_use=array[false, false]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $array3 where id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_082</t>
+  </si>
+  <si>
+    <t>删除map字段值为null的数据可删除成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map1_value07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $map1 where id=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $map1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_083</t>
+  </si>
+  <si>
+    <t>删除含有多个map字段的表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map2_value13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $map2 where id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $map2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_084</t>
+  </si>
+  <si>
+    <t>updel_085</t>
+  </si>
+  <si>
+    <t>map7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map7_value20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map7_value20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $map7 set age=20 where id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $map7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name,data from $map7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $map7 set name='dingo'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表中含有map类型字段，更新整型字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表中含有map类型字段，更新字符型字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_086</t>
+  </si>
+  <si>
+    <t>updel_087</t>
+  </si>
+  <si>
+    <t>删除含有multiset类型字段的单条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除含有multiset类型字段的全表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset20_value47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $multiset20 where id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $multiset20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $multiset20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_088</t>
+  </si>
+  <si>
+    <t>updel_089</t>
+  </si>
+  <si>
+    <t>删除整型列值为null的行数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除字符型列值为null的行数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset1_value20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset3_value21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $multiset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $multiset3 where id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $multiset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $multiset3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>updel_090</t>
+  </si>
+  <si>
+    <t>updel_091</t>
+  </si>
+  <si>
+    <t>updel_092</t>
+  </si>
+  <si>
+    <t>updel_093</t>
+  </si>
+  <si>
+    <t>updel_094</t>
+  </si>
+  <si>
+    <t>updel_095</t>
+  </si>
+  <si>
+    <t>左边范围更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间范围更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右边范围更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左边范围删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间范围删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右边范围删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema1 set age=100 where id&lt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema1 set amount=99.99 where id&gt;=10 and id&lt;=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema1 set name='dingo' where id&gt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema1 where id&lt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema1 where id&gt;=10 and id&lt;=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema1 where id&gt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_096</t>
+  </si>
+  <si>
+    <t>updel_097</t>
+  </si>
+  <si>
+    <t>两端范围删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键not between范围删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema1 where id&lt;5 or id&gt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema1 where id not between 10 and 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_098</t>
+  </si>
+  <si>
+    <t>delete from $schema1 where id not between 10 and 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_001.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_002.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_003.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_004.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_005.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_006.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_007.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_008.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_009.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_010.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_011.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_012.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_013.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_014.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_015.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_016.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_017.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_018.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_019.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_020.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_021.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_022.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_023.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_024.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_025.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_026.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_027.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_028.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_029.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_030.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_031.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_032.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_033.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_034.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_035.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_036.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_037.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_038.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_039.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_040.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_041.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_042.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_043.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_044.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_045.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_046.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_047.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_048.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_049.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_050.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_051.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_052.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_053.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_054.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_055.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_056.csv</t>
+  </si>
+  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_063.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updel_064</t>
-  </si>
-  <si>
-    <t>更新字符型字段值为整数值，可自动转型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $schema1 set name=123456 where id=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $schema1 where id=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_064.csv</t>
   </si>
   <si>
-    <t>updel_065</t>
-  </si>
-  <si>
-    <t>updel_066</t>
-  </si>
-  <si>
-    <t>删除含有array字段类型的单条数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComplexDataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array18_value52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $array18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_065.csv</t>
   </si>
   <si>
-    <t>删除含有array字段类型的全表数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from $array18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_066.csv</t>
   </si>
   <si>
-    <t>updel_067</t>
-  </si>
-  <si>
-    <t>updel_068</t>
-  </si>
-  <si>
-    <t>删除array字段值为null的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array3</t>
-  </si>
-  <si>
-    <t>array3_value18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from $array3 where id=1543</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $array3</t>
-  </si>
-  <si>
-    <t>select * from $array3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_067.csv</t>
   </si>
   <si>
-    <t>updel_069</t>
-  </si>
-  <si>
-    <t>updel_070</t>
-  </si>
-  <si>
-    <t>updel_071</t>
-  </si>
-  <si>
-    <t>updel_072</t>
-  </si>
-  <si>
-    <t>updel_073</t>
-  </si>
-  <si>
-    <t>updel_074</t>
-  </si>
-  <si>
-    <t>updel_075</t>
-  </si>
-  <si>
-    <t>updel_076</t>
-  </si>
-  <si>
-    <t>updel_077</t>
-  </si>
-  <si>
-    <t>updel_078</t>
-  </si>
-  <si>
-    <t>updel_079</t>
-  </si>
-  <si>
-    <t>updel_080</t>
-  </si>
-  <si>
-    <t>updel_081</t>
-  </si>
-  <si>
-    <t>array1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array1_value01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array1 set class_no = array[9999,9999,99999] where id=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_068.csv</t>
   </si>
   <si>
@@ -1512,536 +2067,30 @@
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_081.csv</t>
   </si>
   <si>
-    <t>select * from $array1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - int型单条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - int型整列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array1 set class_no = array[-100,-1000,-10000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - varchar型单条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - varchar型整列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array3_value03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array3_value03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array3 set user_info=array['male','lolo','172.3'] where id=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array3 set user_info=array['-1']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - double型单条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - double型整列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - date型单条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - date型整列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - time型单条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - time型整列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - timestamp型单条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - timestamp型整列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - boolean型单条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新array字段值 - boolean型整列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array5</t>
-  </si>
-  <si>
-    <t>array5_value05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array7</t>
-  </si>
-  <si>
-    <t>array7_value07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array7_value07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array8</t>
-  </si>
-  <si>
-    <t>array8_value08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array8_value08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array9</t>
-  </si>
-  <si>
-    <t>array9_value09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array9_value09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array10</t>
-  </si>
-  <si>
-    <t>array10_value10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array10_value10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $array5</t>
-  </si>
-  <si>
-    <t>select * from $array5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $array7</t>
-  </si>
-  <si>
-    <t>select * from $array7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $array8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $array9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $array10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array5 set price = array[99.9999,0.0] where id=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array5 set price = array[-7890.1234] where id&lt;=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array7 set run_inter=array['2000-02-02'] where id=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array7 set run_inter=array['2012-12-13','2022-02-23','2032-11-01','2049-01-05']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array8 set test_time=array['18:18:18'] where id = 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array8 set test_time=array['00:00:00','08:59:59','12:30:30','22:01:02']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array9 set send_time=array['1919-05-04 18:18:18', '2049-10-01 14:00:00'] where id = 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array9 set send_time=array['2000-01-01 00:00:00','2010-02-02 08:59:59','2020-03-03 12:30:30','1990-04-04 22:01:02'] where id&gt;=1 and id&lt;=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array10 set in_use=array[true, true] where id = 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $array10 set in_use=array[false, false]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from $array3 where id=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $array3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updel_082</t>
-  </si>
-  <si>
-    <t>删除map字段值为null的数据可删除成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map1_value07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from $map1 where id=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $map1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_082.csv</t>
   </si>
   <si>
-    <t>updel_083</t>
-  </si>
-  <si>
-    <t>删除含有多个map字段的表数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map2_value13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from $map2 where id=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $map2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_083.csv</t>
   </si>
   <si>
-    <t>updel_084</t>
-  </si>
-  <si>
-    <t>updel_085</t>
-  </si>
-  <si>
-    <t>map7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map7_value20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map7_value20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $map7 set age=20 where id=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $map7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select id,name,data from $map7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_084.csv</t>
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_085.csv</t>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $map7 set name='dingo'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表中含有map类型字段，更新整型字段值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表中含有map类型字段，更新字符型字段值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updel_086</t>
-  </si>
-  <si>
-    <t>updel_087</t>
-  </si>
-  <si>
-    <t>删除含有multiset类型字段的单条数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除含有multiset类型字段的全表数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multiset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiset20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiset20_value47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from $multiset20 where id=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from $multiset20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $multiset20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_086.csv</t>
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_087.csv</t>
   </si>
   <si>
-    <t>updel_088</t>
-  </si>
-  <si>
-    <t>updel_089</t>
-  </si>
-  <si>
-    <t>删除整型列值为null的行数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除字符型列值为null的行数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiset1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiset3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiset1_value20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiset3_value21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from $multiset1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from $multiset3 where id=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_088.csv</t>
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_089.csv</t>
   </si>
   <si>
-    <t>select * from $multiset1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $multiset3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>updel_090</t>
-  </si>
-  <si>
-    <t>updel_091</t>
-  </si>
-  <si>
-    <t>updel_092</t>
-  </si>
-  <si>
-    <t>updel_093</t>
-  </si>
-  <si>
-    <t>updel_094</t>
-  </si>
-  <si>
-    <t>updel_095</t>
-  </si>
-  <si>
-    <t>左边范围更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间范围更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右边范围更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左边范围删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间范围删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右边范围删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $schema1 set age=100 where id&lt;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $schema1 set amount=99.99 where id&gt;=10 and id&lt;=15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update $schema1 set name='dingo' where id&gt;15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $schema1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_090.csv</t>
   </si>
   <si>
@@ -2060,60 +2109,7 @@
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_095.csv</t>
   </si>
   <si>
-    <t>delete from $schema1 where id&lt;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from $schema1 where id&gt;=10 and id&lt;=15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from $schema1 where id&gt;15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updel_096</t>
-  </si>
-  <si>
-    <t>updel_097</t>
-  </si>
-  <si>
-    <t>两端范围删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键not between范围删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from $schema1 where id&lt;5 or id&gt;15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_096.csv</t>
-  </si>
-  <si>
-    <t>delete from $schema1 where id not between 10 and 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updel_098</t>
-  </si>
-  <si>
-    <t>delete from $schema1 where id not between 10 and 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_097.csv</t>
@@ -2491,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2537,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
@@ -2551,7 +2547,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -2569,7 +2565,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>16</v>
@@ -2581,7 +2577,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>19</v>
@@ -2589,7 +2585,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>11</v>
@@ -2607,7 +2603,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -2619,7 +2615,7 @@
         <v>24</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>33</v>
+        <v>487</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>19</v>
@@ -2627,7 +2623,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>11</v>
@@ -2645,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>29</v>
@@ -2657,7 +2653,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>34</v>
+        <v>488</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>19</v>
@@ -2665,7 +2661,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
@@ -2683,7 +2679,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
@@ -2695,7 +2691,7 @@
         <v>31</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>35</v>
+        <v>489</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2703,69 +2699,69 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>43</v>
+        <v>490</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>491</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>19</v>
@@ -2773,34 +2769,34 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>492</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2808,34 +2804,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>493</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>19</v>
@@ -2843,35 +2839,35 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>494</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -2879,35 +2875,35 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>495</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2915,35 +2911,35 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>59</v>
+        <v>496</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>19</v>
@@ -2951,35 +2947,35 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>497</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -2987,35 +2983,35 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>498</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3023,35 +3019,35 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>76</v>
+        <v>499</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>19</v>
@@ -3059,35 +3055,35 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>500</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -3095,35 +3091,35 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>501</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3131,35 +3127,35 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>502</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>19</v>
@@ -3167,35 +3163,35 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>503</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>19</v>
@@ -3203,35 +3199,35 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>504</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -3239,35 +3235,35 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>109</v>
+        <v>505</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>19</v>
@@ -3275,34 +3271,34 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>545</v>
+        <v>462</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>506</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -3310,34 +3306,34 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>507</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -3345,34 +3341,34 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>118</v>
+        <v>508</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>19</v>
@@ -3380,34 +3376,34 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>119</v>
+        <v>509</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>19</v>
@@ -3415,34 +3411,34 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -3450,34 +3446,34 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>121</v>
+        <v>511</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>19</v>
@@ -3485,34 +3481,34 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>122</v>
+        <v>512</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>19</v>
@@ -3520,35 +3516,35 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>140</v>
+        <v>513</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -3556,35 +3552,35 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>141</v>
+        <v>514</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>19</v>
@@ -3592,35 +3588,35 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>142</v>
+        <v>515</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>19</v>
@@ -3628,37 +3624,37 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>181</v>
+        <v>516</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>19</v>
@@ -3666,37 +3662,37 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>182</v>
+        <v>517</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>19</v>
@@ -3704,37 +3700,37 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>183</v>
+        <v>518</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>19</v>
@@ -3742,37 +3738,37 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>184</v>
+        <v>519</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>19</v>
@@ -3780,37 +3776,37 @@
     </row>
     <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>185</v>
+        <v>520</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>19</v>
@@ -3818,37 +3814,37 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>186</v>
+        <v>521</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>19</v>
@@ -3856,37 +3852,37 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>187</v>
+        <v>522</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>19</v>
@@ -3894,37 +3890,37 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>188</v>
+        <v>523</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>19</v>
@@ -3932,37 +3928,37 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="I40" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>189</v>
+        <v>524</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>19</v>
@@ -3970,37 +3966,37 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>190</v>
+        <v>525</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>19</v>
@@ -4008,37 +4004,37 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>195</v>
+        <v>526</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>19</v>
@@ -4046,37 +4042,37 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>206</v>
+        <v>527</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>19</v>
@@ -4084,37 +4080,37 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>207</v>
+        <v>528</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>19</v>
@@ -4122,37 +4118,37 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>216</v>
+        <v>529</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>19</v>
@@ -4160,37 +4156,37 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>217</v>
+        <v>530</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>19</v>
@@ -4198,37 +4194,37 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>226</v>
+        <v>531</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>19</v>
@@ -4236,37 +4232,37 @@
     </row>
     <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>233</v>
+        <v>532</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>19</v>
@@ -4274,37 +4270,37 @@
     </row>
     <row r="49" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>234</v>
+        <v>533</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>19</v>
@@ -4312,37 +4308,37 @@
     </row>
     <row r="50" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>262</v>
+        <v>534</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>19</v>
@@ -4350,37 +4346,37 @@
     </row>
     <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>263</v>
+        <v>535</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>19</v>
@@ -4388,37 +4384,37 @@
     </row>
     <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>264</v>
+        <v>536</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>19</v>
@@ -4426,37 +4422,37 @@
     </row>
     <row r="53" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>265</v>
+        <v>537</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>19</v>
@@ -4464,37 +4460,37 @@
     </row>
     <row r="54" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>266</v>
+        <v>538</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>19</v>
@@ -4502,37 +4498,37 @@
     </row>
     <row r="55" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>267</v>
+        <v>539</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>19</v>
@@ -4540,37 +4536,37 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>268</v>
+        <v>540</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>19</v>
@@ -4578,37 +4574,37 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>269</v>
+        <v>541</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>19</v>
@@ -4616,204 +4612,204 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="1" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="1" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>354</v>
+        <v>542</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>19</v>
@@ -4821,72 +4817,72 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>360</v>
+        <v>543</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>468</v>
+        <v>393</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>422</v>
+        <v>347</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>469</v>
+        <v>394</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>470</v>
+        <v>395</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>370</v>
+        <v>544</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>19</v>
@@ -4894,113 +4890,113 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>374</v>
+        <v>545</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>384</v>
+        <v>546</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>416</v>
+        <v>341</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>400</v>
+        <v>339</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>415</v>
+        <v>340</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>401</v>
+        <v>547</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>19</v>
@@ -5008,37 +5004,37 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>417</v>
+        <v>342</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>418</v>
+        <v>343</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>415</v>
+        <v>340</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>402</v>
+        <v>548</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>19</v>
@@ -5046,37 +5042,37 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
-        <v>386</v>
+        <v>325</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>420</v>
+        <v>345</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>422</v>
+        <v>347</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>403</v>
+        <v>549</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>19</v>
@@ -5084,37 +5080,37 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>421</v>
+        <v>346</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>404</v>
+        <v>550</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>19</v>
@@ -5122,37 +5118,37 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>427</v>
+        <v>352</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>437</v>
+        <v>362</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>438</v>
+        <v>363</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>458</v>
+        <v>383</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>452</v>
+        <v>377</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>405</v>
+        <v>551</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>19</v>
@@ -5160,37 +5156,37 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
-        <v>389</v>
+        <v>328</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>428</v>
+        <v>353</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>437</v>
+        <v>362</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>438</v>
+        <v>363</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>459</v>
+        <v>384</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>451</v>
+        <v>376</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>406</v>
+        <v>552</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>19</v>
@@ -5198,37 +5194,37 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>429</v>
+        <v>354</v>
       </c>
       <c r="D75" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F75" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>440</v>
-      </c>
       <c r="H75" s="1" t="s">
-        <v>460</v>
+        <v>385</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>454</v>
+        <v>379</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>407</v>
+        <v>553</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>19</v>
@@ -5236,37 +5232,37 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>430</v>
+        <v>355</v>
       </c>
       <c r="D76" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>439</v>
-      </c>
       <c r="G76" s="7" t="s">
-        <v>441</v>
+        <v>366</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>461</v>
+        <v>386</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>453</v>
+        <v>378</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>408</v>
+        <v>554</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>19</v>
@@ -5274,37 +5270,37 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>442</v>
+        <v>367</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>443</v>
+        <v>368</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>462</v>
+        <v>387</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>455</v>
+        <v>380</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>409</v>
+        <v>555</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>19</v>
@@ -5312,37 +5308,37 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>432</v>
+        <v>357</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>442</v>
+        <v>367</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>444</v>
+        <v>369</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>463</v>
+        <v>388</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>455</v>
+        <v>380</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>410</v>
+        <v>556</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>19</v>
@@ -5350,37 +5346,37 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>445</v>
+        <v>370</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>446</v>
+        <v>371</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>464</v>
+        <v>389</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J79" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="J79" s="7" t="s">
-        <v>456</v>
-      </c>
       <c r="K79" s="7" t="s">
-        <v>411</v>
+        <v>557</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>19</v>
@@ -5388,37 +5384,37 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
-        <v>395</v>
+        <v>334</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>445</v>
+        <v>370</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>447</v>
+        <v>372</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>465</v>
+        <v>390</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>456</v>
+        <v>381</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>412</v>
+        <v>558</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>19</v>
@@ -5426,37 +5422,37 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>435</v>
+        <v>360</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>448</v>
+        <v>373</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>449</v>
+        <v>374</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>466</v>
+        <v>391</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>457</v>
+        <v>382</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>413</v>
+        <v>559</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>19</v>
@@ -5464,37 +5460,37 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>436</v>
+        <v>361</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>448</v>
+        <v>373</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>450</v>
+        <v>375</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>457</v>
+        <v>382</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>414</v>
+        <v>560</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>19</v>
@@ -5502,75 +5498,75 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>471</v>
+        <v>396</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>472</v>
+        <v>397</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>473</v>
+        <v>398</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>474</v>
+        <v>399</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>476</v>
+        <v>401</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>477</v>
+        <v>402</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>478</v>
+        <v>403</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>479</v>
+        <v>561</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>480</v>
+        <v>404</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>481</v>
+        <v>405</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>473</v>
+        <v>398</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>482</v>
+        <v>406</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>483</v>
+        <v>407</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>484</v>
+        <v>408</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>485</v>
+        <v>409</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>486</v>
+        <v>410</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>487</v>
+        <v>562</v>
       </c>
       <c r="L84" s="7" t="s">
         <v>19</v>
@@ -5578,37 +5574,37 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
-        <v>488</v>
+        <v>411</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>501</v>
+        <v>422</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>473</v>
+        <v>398</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>490</v>
+        <v>413</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>491</v>
+        <v>414</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>493</v>
+        <v>416</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>494</v>
+        <v>417</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>495</v>
+        <v>418</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>19</v>
@@ -5616,37 +5612,37 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
-        <v>489</v>
+        <v>412</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>502</v>
+        <v>423</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>473</v>
+        <v>398</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>490</v>
+        <v>413</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>492</v>
+        <v>415</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>499</v>
+        <v>420</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>496</v>
+        <v>419</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>19</v>
@@ -5654,37 +5650,37 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
-        <v>503</v>
+        <v>424</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>505</v>
+        <v>426</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>509</v>
+        <v>430</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>510</v>
+        <v>431</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>512</v>
+        <v>433</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>514</v>
+        <v>435</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>19</v>
@@ -5692,148 +5688,148 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
-        <v>504</v>
+        <v>425</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>506</v>
+        <v>427</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>509</v>
+        <v>430</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>511</v>
+        <v>432</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>513</v>
+        <v>434</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>514</v>
+        <v>435</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
-        <v>517</v>
+        <v>436</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>519</v>
+        <v>438</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>521</v>
+        <v>440</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>523</v>
+        <v>442</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>525</v>
+        <v>444</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>527</v>
+        <v>446</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>530</v>
+        <v>447</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
-        <v>518</v>
+        <v>437</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>520</v>
+        <v>439</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>522</v>
+        <v>441</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>524</v>
+        <v>443</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>526</v>
+        <v>445</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>527</v>
+        <v>446</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>531</v>
+        <v>448</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>539</v>
+        <v>456</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>545</v>
+        <v>462</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>549</v>
+        <v>466</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>552</v>
+        <v>469</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>19</v>
@@ -5841,34 +5837,34 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
-        <v>534</v>
+        <v>451</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>540</v>
+        <v>457</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>546</v>
+        <v>463</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>550</v>
+        <v>467</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>553</v>
+        <v>470</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>19</v>
@@ -5876,34 +5872,34 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
-        <v>535</v>
+        <v>452</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>545</v>
+        <v>462</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>551</v>
+        <v>468</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>553</v>
+        <v>470</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>19</v>
@@ -5911,34 +5907,34 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
-        <v>536</v>
+        <v>453</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>542</v>
+        <v>459</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>547</v>
+        <v>464</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>561</v>
+        <v>472</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>552</v>
+        <v>469</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>19</v>
@@ -5946,34 +5942,34 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
-        <v>537</v>
+        <v>454</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>543</v>
+        <v>460</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>548</v>
+        <v>465</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>562</v>
+        <v>473</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>553</v>
+        <v>470</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>19</v>
@@ -5981,34 +5977,34 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
-        <v>538</v>
+        <v>455</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>544</v>
+        <v>461</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>546</v>
+        <v>463</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>563</v>
+        <v>474</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>553</v>
+        <v>470</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>19</v>
@@ -6016,34 +6012,34 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
-        <v>564</v>
+        <v>475</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>566</v>
+        <v>477</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>545</v>
+        <v>462</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>568</v>
+        <v>479</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>569</v>
+        <v>480</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>19</v>
@@ -6051,31 +6047,31 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
-        <v>565</v>
+        <v>476</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>567</v>
+        <v>478</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>545</v>
+        <v>462</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>571</v>
+        <v>481</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="K98" s="7" t="s">
         <v>576</v>
@@ -6086,31 +6082,31 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>567</v>
+        <v>478</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>545</v>
+        <v>462</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>577</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -2155,12 +2155,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2175,7 +2181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2184,6 +2190,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2488,7 +2495,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4851,7 +4858,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>303</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -4889,7 +4896,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -4927,7 +4934,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="8" t="s">
         <v>315</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -4965,7 +4972,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -5003,7 +5010,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -5041,7 +5048,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="8" t="s">
         <v>325</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -5079,7 +5086,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>326</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -5117,7 +5124,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>327</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -5155,7 +5162,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="8" t="s">
         <v>328</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -5193,7 +5200,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="8" t="s">
         <v>329</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -5231,7 +5238,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -5269,7 +5276,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -5307,7 +5314,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -5345,7 +5352,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="8" t="s">
         <v>333</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -5383,7 +5390,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="8" t="s">
         <v>334</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -5421,7 +5428,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>335</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -5459,7 +5466,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="8" t="s">
         <v>336</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -5649,7 +5656,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -5687,7 +5694,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="8" t="s">
         <v>425</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -5725,7 +5732,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="8" t="s">
         <v>436</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -5763,7 +5770,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="8" t="s">
         <v>437</v>
       </c>
       <c r="B90" s="7" t="s">

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -2494,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4862,7 +4862,7 @@
         <v>303</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>305</v>
@@ -4900,7 +4900,7 @@
         <v>304</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>312</v>
@@ -4938,7 +4938,7 @@
         <v>315</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>317</v>
@@ -4976,7 +4976,7 @@
         <v>316</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>341</v>
@@ -5014,7 +5014,7 @@
         <v>324</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>342</v>
@@ -5052,7 +5052,7 @@
         <v>325</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>345</v>
@@ -5090,7 +5090,7 @@
         <v>326</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>346</v>
@@ -5128,7 +5128,7 @@
         <v>327</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>352</v>
@@ -5166,7 +5166,7 @@
         <v>328</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>353</v>
@@ -5204,7 +5204,7 @@
         <v>329</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>354</v>
@@ -5242,7 +5242,7 @@
         <v>330</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>355</v>
@@ -5280,7 +5280,7 @@
         <v>331</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>356</v>
@@ -5318,7 +5318,7 @@
         <v>332</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>357</v>
@@ -5356,7 +5356,7 @@
         <v>333</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>358</v>
@@ -5394,7 +5394,7 @@
         <v>334</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>359</v>
@@ -5432,7 +5432,7 @@
         <v>335</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>360</v>
@@ -5470,7 +5470,7 @@
         <v>336</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>361</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="601">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2116,6 +2116,90 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_098.csv</t>
+  </si>
+  <si>
+    <t>updel_099</t>
+  </si>
+  <si>
+    <t>updel_100</t>
+  </si>
+  <si>
+    <t>多分区条件删除，小于条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区条件删除，大于条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_value04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema9 where id&lt;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema9 where id&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_099.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_100.csv</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_101</t>
+  </si>
+  <si>
+    <t>updel_102</t>
+  </si>
+  <si>
+    <t>多分区条件更新，小于条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区条件更新，大于条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema9 set name='Java' where id&lt;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_101.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_102.csv</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema9 set amount=99.99 where id&gt;=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2492,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:B82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6119,6 +6203,148 @@
         <v>577</v>
       </c>
       <c r="L99" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A100" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A101" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A102" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A103" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="L103" s="7" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="633">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2199,6 +2199,127 @@
   </si>
   <si>
     <t>update $schema9 set amount=99.99 where id&gt;=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_103</t>
+  </si>
+  <si>
+    <t>含有向量索引的表数据删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector062_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $vector062 where id&gt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_103.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name from $vector062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_104</t>
+  </si>
+  <si>
+    <t>updel_105</t>
+  </si>
+  <si>
+    <t>含有标量索引的表数据删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar_common_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name,amount,gmt from $scalar047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar047 where name='zhangsan' or amount=0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_104.csv</t>
+  </si>
+  <si>
+    <t>updel_106</t>
+  </si>
+  <si>
+    <t>更新标量索引表的索引字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新标量索引表的覆盖索引字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar047 set name='dingo' where id in (5,15,25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name from $scalar047 where id in (5,15,25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_105.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_106.csv</t>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select gmt from $scalar047 where gmt=1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar047 set gmt=1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2576,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6345,6 +6466,158 @@
         <v>598</v>
       </c>
       <c r="L103" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A104" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A105" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L105" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A106" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="L107" s="7" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="651">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2229,10 +2229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_103.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2320,6 +2316,76 @@
   </si>
   <si>
     <t>update $scalar047 set gmt=1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_107</t>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_108</t>
+  </si>
+  <si>
+    <t>带有向量索引的表更新数值标量字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有向量索引的表更新字符标量字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_109</t>
+  </si>
+  <si>
+    <t>带有向量索引的表更新日期标量字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $vector062 set address='beijing' where id in (10,20,30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $vector062 set birthday='2023-09-20' where id=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,address from $vector062 where id in (10,20,30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,birthday from $vector062 where id=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_107.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_108.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_109.csv</t>
+  </si>
+  <si>
+    <t>update $vector062 set amount=1234.1234 where id&lt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,amount from $vector062 where id&lt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>490</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2697,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6495,13 +6561,13 @@
         <v>607</v>
       </c>
       <c r="I104" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K104" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="K104" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>19</v>
@@ -6509,37 +6575,37 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="H105" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I105" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="J105" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="K105" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="L105" s="7" t="s">
         <v>19</v>
@@ -6547,37 +6613,37 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D106" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="F106" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="G106" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="G106" s="7" t="s">
-        <v>617</v>
-      </c>
       <c r="H106" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J106" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="J106" s="1" t="s">
+      <c r="K106" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="K106" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="L106" s="7" t="s">
         <v>19</v>
@@ -6585,39 +6651,153 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D107" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="F107" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="G107" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>617</v>
-      </c>
       <c r="H107" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="K107" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="L107" s="7" t="s">
+      <c r="B108" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="L108" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="L109" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="L110" s="7" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="664">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2387,6 +2387,54 @@
   <si>
     <t>490</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_110</t>
+  </si>
+  <si>
+    <t>updel_111</t>
+  </si>
+  <si>
+    <t>scalar055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar055_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar055 set amount=888.88 where amount=279540.148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar055 where amount=888.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_110.csv</t>
+  </si>
+  <si>
+    <t>更新标量索引字段值通过标量索引字段过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新标量索引字段值通过主键字段过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar055 set amount=-999.999 where id=4695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar055 where amount=-999.999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_111.csv</t>
   </si>
 </sst>
 </file>
@@ -2763,10 +2811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2778,7 +2826,7 @@
     <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="47.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38" style="1" customWidth="1"/>
     <col min="11" max="12" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -6798,6 +6846,82 @@
         <v>647</v>
       </c>
       <c r="L110" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="L112" s="7" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -2814,7 +2814,7 @@
   <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="672">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2435,6 +2435,36 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_111.csv</t>
+  </si>
+  <si>
+    <t>updel_112</t>
+  </si>
+  <si>
+    <t>向量表删除后后置过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix018_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixindex018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $mixindex018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_112.csv</t>
+  </si>
+  <si>
+    <t>select id,age,gender,hobby,color_index$distance from vector($mixindex018, color, array[0.009107396006584167,-0.4928479492664337,-0.06084398180246353,0.11279209703207016,0.42720580101013184,-0.5535244345664978,-0.051339954137802124,0.3442928194999695,0.397807240486145,0.14437393844127655,-0.27258825302124023,0.11299128085374832,0.26662662625312805,-0.3028406798839569,-0.06034494936466217,-0.20874223113059998,0.710351824760437,0.03114473819732666,-0.10010837763547897,-0.499957799911499,-0.3172328472137451,0.18967600166797638,0.16708506643772125,-0.31831443309783936,-0.3038794696331024,0.517365038394928,-0.1310274302959442,0.6051051020622253,-0.29701799154281616,-0.11700791120529175,-0.49527180194854736,0.3499431014060974,-0.05310584604740143,0.11840163171291351,-0.6476613283157349,-0.40672868490219116,0.15504536032676697,-0.04425550997257233,-0.017758861184120178,-0.4650961756706238,-0.367722749710083,0.4912892282009125,0.15679343044757843,-1.2024909257888794,-0.6475555896759033,0.8445031642913818,-0.3021777868270874,0.0012783706188201904,-0.1028386726975441,-0.028430849313735962,0.4390820562839508,0.17291557788848877,0.02308507263660431,-0.2666246294975281,0.030758768320083618,0.3070322275161743,0.7922346591949463,0.15251073241233826,0.3876311779022217,-0.12918725609779358,0.5775445699691772,0.13809040188789368,0.3011755347251892,-0.08841019868850708,-0.2804226875305176,0.08000586181879044,0.23992058634757996,0.30137330293655396,-0.573534369468689,-0.08557131141424179,-0.009991265833377838,0.22057701647281647,-0.07465316355228424,-0.1380939483642578,0.12757709622383118,-0.1524963080883026,-0.21346122026443481,-0.21207493543624878,-0.299119770526886,-0.105656199157238,0.2978556156158447,0.27103662490844727,-0.04677818715572357,-0.25942736864089966,0.23926180601119995,0.06485702842473984,-0.2326173037290573,-0.7795956134796143,0.5515224933624268,-0.13598020374774933,-0.3016166687011719,-0.23002196848392487,-5.020496845245361,1.1768553256988525,0.04210896044969559,0.05429087206721306,-0.12462489306926727,-0.2512921392917633,0.025492563843727112,-0.014712274074554443,0.3395729660987854,0.36077940464019775,0.710265040397644,0.5866747498512268,0.3867844343185425,0.16563571989536285,-2.2621219158172607,-0.31919386982917786,-0.29929596185684204,-0.1239459365606308,-0.019464053213596344,-0.18152916431427002,0.015370100736618042,-0.39437994360923767,-0.3952904939651489,-0.17863686382770538,0.3756665587425232,0.01915770024061203,-0.0487205907702446,0.5403110980987549,0.13948170840740204,0.7490887641906738,0.218780517578125,0.21333663165569305,0.6106190085411072,-0.5787690877914429,0.005233213305473328,-0.02014821767807007,-0.37207454442977905,0.04737117886543274,0.3805462121963501,0.022129982709884644,-0.08685516566038132,0.8918148279190063,0.332944393157959,-0.17890742421150208,-0.01971307396888733,-0.49113523960113525,-0.16974413394927979,0.29028767347335815,-0.0854928120970726,-0.28040117025375366,0.27752572298049927,0.19523702561855316,-0.010701179504394531,0.41232433915138245,-0.2981152832508087,0.17831067740917206,0.23491880297660828,0.5166872143745422,0.03726338595151901,-0.09167103469371796,-0.14614176750183105,0.0835254117846489,-0.526052713394165,0.5634927749633789,0.4244139492511749,0.08627873659133911,0.11286911368370056,-0.09144455194473267,0.19640317559242249,-0.28446879982948303,-0.14722681045532227,-0.15440787374973297,0.38722527027130127,0.2799495756626129,0.2579476833343506,0.07801324129104614,-0.03614184260368347,0.2691837549209595,-0.22063779830932617,0.20414650440216064,0.290392130613327,-0.23576216399669647,0.6217473745346069,-0.36090806126594543,-0.5171005129814148,-0.0978025570511818,-0.22199128568172455,0.11597487330436707,-0.10627104341983795,0.0140666663646698,-0.3552021086215973,0.04552648216485977,0.028643697500228882,-0.2697099447250366,-0.08528557419776917,-0.3565848469734192,-0.6836068034172058,0.4241693317890167,0.3769601583480835,-0.3473547399044037,-0.28350770473480225,0.4194734990596771,0.16857166588306427,0.24369701743125916,0.7187827229499817,-0.24069659411907196,-0.612932026386261,-0.02567557990550995,0.025800958275794983,-0.2763204872608185,0.06153678894042969,0.42983344197273254,-0.27653318643569946,0.07124429941177368,-0.21047277748584747,-0.19868281483650208,-0.40652528405189514,-0.2593531012535095,0.35989561676979065,0.7571883797645569,0.6407842636108398,0.29625385999679565,0.4905804395675659,-0.11757611483335495,-0.15926161408424377,0.05945210158824921,0.9470091462135315,-0.2651394009590149,0.24507103860378265,0.012639820575714111,-0.16477082669734955,0.023227810859680176,0.3517795503139496,0.061285004019737244,0.23400992155075073,-0.004913773387670517,0.10474497079849243,0.28454095125198364,0.2646726965904236,0.056223608553409576,0.14024418592453003,0.09913889318704605,0.37895309925079346,0.4080517888069153,0.23690679669380188,-0.9799992442131042,0.6079041361808777,-0.8063328862190247,-0.18007591366767883,0.4238743185997009,0.5677311420440674,0.07879464328289032,-0.6451236009597778,0.3615572452545166,-0.6502392292022705,-0.13250525295734406,0.022514693439006805,0.23416417837142944,-0.31921306252479553,0.015400782227516174,0.3049747347831726,-0.49025920033454895,0.6232213377952576,-0.17872992157936096,0.22888170182704926,0.06563788652420044,-0.09811440110206604,0.5739450454711914,0.19145318865776062,0.19296371936798096,0.1447419375181198,0.6271354556083679,-0.40667158365249634,0.14535176753997803,0.08282049000263214,-0.2226463258266449,0.19218046963214874,0.18990464508533478,0.366453617811203,0.1181904524564743,0.31326085329055786,0.2777858078479767,0.18976512551307678,0.12058664858341217,0.3834364712238312,-0.25943732261657715,0.15866270661354065,-0.14582546055316925,0.2993849217891693,0.3625524640083313,-0.5657874345779419,0.3584221601486206,0.6659886837005615,0.5365152359008789,0.15160009264945984,-0.0038372427225112915,-0.03198322653770447,-0.41171130537986755,0.35392409563064575,0.4899391531944275,-0.44131115078926086,-0.03127241134643555,-0.08564724773168564,-0.2810729742050171,-0.1650094985961914,0.41276872158050537,-0.20266728103160858,-0.21721073985099792,0.06289903819561005,-0.1000848263502121,0.3060847520828247,-0.1798524409532547,-0.053416907787323,-0.17533081769943237,0.4803808927536011,0.6472082734107971,-0.20990946888923645,-0.08272083848714828,0.2603752315044403,0.2435430884361267,0.8928165435791016,0.04669277369976044,0.06500576436519623,0.0932016521692276,0.4320862591266632,-0.19006873667240143,-0.4583078622817993,-0.06959453225135803,0.41687387228012085,1.279518961906433,-0.09231052547693253,0.39603978395462036,0.4426204264163971,0.1414766013622284,0.14081603288650513,0.029098331928253174,-0.0008250568062067032,-0.04960125684738159,0.10457373410463333,0.5750452876091003,-0.23702768981456757,0.07400791347026825,-0.39593395590782166,0.2875250577926636,0.40632858872413635,0.4273437261581421,-0.15563148260116577,-0.1943039447069168,0.09682011604309082,0.2771073579788208,-0.17696169018745422,-0.15394936501979828,-0.028617314994335175,-0.6125500202178955,0.055850833654403687,-0.33313047885894775,-0.18644365668296814,0.05475170910358429,0.08947843313217163,-0.07653182744979858,0.09828981757164001,-0.03744521737098694,-0.09890225529670715,0.3104325830936432,0.3743216395378113,0.7847214937210083,0.22328320145606995,-0.007173389196395874,0.2743714451789856,0.3419463038444519,-0.4041624963283539,0.8219678401947021,-0.937566339969635,-0.0877365693449974,0.08319441229104996,0.519494891166687,0.14611385762691498,0.6832436919212341,0.08052428811788559,0.4532940685749054,-0.11158505082130432,0.05747853219509125,-0.03627094626426697,0.29975807666778564,0.3184080719947815,-0.15185518562793732,-0.17107611894607544,-0.26622259616851807,-0.041283462196588516,0.2775959074497223,0.5768389701843262,-0.19857929646968842,-0.383053183555603,-0.4868699014186859,0.3679580092430115,0.31410154700279236,0.45399945974349976,0.565982460975647,-0.9887039661407471,-0.5410878658294678,-0.25793322920799255,-0.4151421785354614,0.9581260085105896,0.08737964928150177,0.12770259380340576,0.17853334546089172,-0.47929897904396057,-0.18773919343948364,-0.06778784096240997,0.2790369987487793,0.3038453459739685,-0.00035012513399124146,0.21557708084583282,-0.2987268567085266,-0.37862226366996765,0.11563920229673386,0.37216106057167053,0.07540548592805862,-0.14644283056259155,0.36704716086387634,0.27644112706184387,0.23733626306056976,-0.15499460697174072,0.18270283937454224,0.286896288394928,0.0611887089908123,-0.003465220332145691,-0.44345101714134216,-0.48094767332077026,-0.05870349705219269,0.2203047126531601,0.23658716678619385,0.14524224400520325,-0.3096632957458496,-0.42239847779273987,0.14180953800678253,-1.9080333709716797,0.7268998026847839,0.21734172105789185,0.3595874309539795,-0.24850676953792572,-0.0687989890575409,-0.2876971960067749,-0.008909806609153748,0.06251184642314911,0.17282895743846893,-0.24134333431720734,-0.34526604413986206,-0.6466650366783142,0.42585867643356323,0.5730605125427246,0.02659779042005539,0.3097115755081177,0.29858189821243286,-0.07963889837265015,-0.2749827802181244,-0.03155626356601715,-0.037864506244659424,0.11886607110500336,0.0742151141166687,0.454728901386261,0.11392711102962494,-0.0018827617168426514,-0.6696452498435974,0.3057352304458618,0.18775613605976105,0.07171911001205444,0.1750405877828598,-0.2657383978366852,0.24411165714263916,0.2512362003326416,-0.10027620196342468,0.3601529002189636,0.37912803888320923,-0.06990914046764374,-0.3299768567085266,-0.125762477517128,-0.2828892767429352,0.15549014508724213,0.13161194324493408,0.39875492453575134,-0.4680383801460266,-0.13426533341407776,0.2584708333015442,0.01619536429643631,0.26572245359420776,-0.3058027923107147,0.0349903404712677,-0.5298135280609131,-0.5118231177330017,0.35788029432296753,0.25099503993988037,-0.3409276306629181,0.0350998193025589,0.12917760014533997,0.04360932856798172,0.03863629698753357,-0.12423983961343765,-0.44539687037467957,0.06586220115423203,0.29936468601226807,-0.7707462310791016,-0.130367249250412,0.18743553757667542,-0.2837158441543579,0.07794137299060822,-0.24770815670490265,0.4286563992500305,-0.13582590222358704,0.13121500611305237,-0.001750364899635315,0.3049774765968323,-0.39047953486442566,0.24318626523017883,-0.4263252913951874,0.2714003324508667,0.17210617661476135,0.6087738871574402,-0.18345880508422852,0.11825743317604065], 10) where age&gt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2811,10 +2841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2876,7 +2906,7 @@
         <v>227</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -2914,7 +2944,7 @@
         <v>228</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -2952,7 +2982,7 @@
         <v>229</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -2990,7 +3020,7 @@
         <v>230</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>27</v>
@@ -3028,7 +3058,7 @@
         <v>231</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3063,7 +3093,7 @@
         <v>232</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -3098,7 +3128,7 @@
         <v>233</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>56</v>
@@ -3133,7 +3163,7 @@
         <v>234</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>57</v>
@@ -3168,7 +3198,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>58</v>
@@ -3204,7 +3234,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>59</v>
@@ -3240,7 +3270,7 @@
         <v>237</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>55</v>
@@ -3276,7 +3306,7 @@
         <v>238</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>60</v>
@@ -3312,7 +3342,7 @@
         <v>239</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>61</v>
@@ -3348,7 +3378,7 @@
         <v>240</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>62</v>
@@ -3384,7 +3414,7 @@
         <v>241</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>74</v>
@@ -3420,7 +3450,7 @@
         <v>242</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>77</v>
@@ -3456,7 +3486,7 @@
         <v>243</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>81</v>
@@ -3492,7 +3522,7 @@
         <v>244</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>82</v>
@@ -3528,7 +3558,7 @@
         <v>245</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>83</v>
@@ -3564,7 +3594,7 @@
         <v>246</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>84</v>
@@ -3600,7 +3630,7 @@
         <v>247</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>92</v>
@@ -3635,7 +3665,7 @@
         <v>248</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>92</v>
@@ -3670,7 +3700,7 @@
         <v>249</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>92</v>
@@ -3705,7 +3735,7 @@
         <v>250</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>92</v>
@@ -3740,7 +3770,7 @@
         <v>251</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>92</v>
@@ -3775,7 +3805,7 @@
         <v>252</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>92</v>
@@ -3810,7 +3840,7 @@
         <v>253</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>110</v>
@@ -3845,7 +3875,7 @@
         <v>254</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>110</v>
@@ -3881,7 +3911,7 @@
         <v>255</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>110</v>
@@ -3917,7 +3947,7 @@
         <v>256</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>110</v>
@@ -3953,7 +3983,7 @@
         <v>257</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>127</v>
@@ -3991,7 +4021,7 @@
         <v>258</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>128</v>
@@ -4029,7 +4059,7 @@
         <v>259</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>129</v>
@@ -4067,7 +4097,7 @@
         <v>260</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>153</v>
@@ -4105,7 +4135,7 @@
         <v>261</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>154</v>
@@ -4143,7 +4173,7 @@
         <v>262</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>130</v>
@@ -4181,7 +4211,7 @@
         <v>263</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>131</v>
@@ -4219,7 +4249,7 @@
         <v>264</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>132</v>
@@ -4257,7 +4287,7 @@
         <v>265</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>133</v>
@@ -4295,7 +4325,7 @@
         <v>266</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>134</v>
@@ -4333,7 +4363,7 @@
         <v>267</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>135</v>
@@ -4371,7 +4401,7 @@
         <v>268</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>160</v>
@@ -4409,7 +4439,7 @@
         <v>269</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>162</v>
@@ -4447,7 +4477,7 @@
         <v>270</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>125</v>
@@ -4485,7 +4515,7 @@
         <v>271</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>168</v>
@@ -4523,7 +4553,7 @@
         <v>272</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>177</v>
@@ -4561,7 +4591,7 @@
         <v>273</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>206</v>
@@ -4599,7 +4629,7 @@
         <v>274</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>205</v>
@@ -4637,7 +4667,7 @@
         <v>275</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>209</v>
@@ -4675,7 +4705,7 @@
         <v>276</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>208</v>
@@ -4713,7 +4743,7 @@
         <v>277</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>211</v>
@@ -4751,7 +4781,7 @@
         <v>278</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>210</v>
@@ -4789,7 +4819,7 @@
         <v>279</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>213</v>
@@ -4827,7 +4857,7 @@
         <v>280</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>212</v>
@@ -4865,7 +4895,7 @@
         <v>281</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>181</v>
@@ -4903,7 +4933,7 @@
         <v>282</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>182</v>
@@ -4941,7 +4971,7 @@
         <v>283</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>190</v>
@@ -4970,7 +5000,7 @@
         <v>284</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>190</v>
@@ -4999,7 +5029,7 @@
         <v>285</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>192</v>
@@ -5026,7 +5056,7 @@
         <v>286</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>191</v>
@@ -5055,7 +5085,7 @@
         <v>287</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>191</v>
@@ -5084,7 +5114,7 @@
         <v>288</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>193</v>
@@ -5111,7 +5141,7 @@
         <v>291</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>292</v>
@@ -5146,7 +5176,7 @@
         <v>298</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>299</v>
@@ -5177,11 +5207,11 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>303</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>305</v>
@@ -5215,11 +5245,11 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>312</v>
@@ -5253,11 +5283,11 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>315</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>317</v>
@@ -5291,11 +5321,11 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>316</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>341</v>
@@ -5329,11 +5359,11 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>324</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>342</v>
@@ -5367,11 +5397,11 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>325</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>345</v>
@@ -5405,11 +5435,11 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>326</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>346</v>
@@ -5443,11 +5473,11 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>327</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>352</v>
@@ -5481,11 +5511,11 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>328</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>353</v>
@@ -5519,11 +5549,11 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>329</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>354</v>
@@ -5557,11 +5587,11 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>355</v>
@@ -5595,11 +5625,11 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="7" t="s">
         <v>331</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>356</v>
@@ -5633,11 +5663,11 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>332</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>357</v>
@@ -5671,11 +5701,11 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>358</v>
@@ -5709,11 +5739,11 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>334</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>359</v>
@@ -5747,11 +5777,11 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>335</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>360</v>
@@ -5785,11 +5815,11 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>336</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>361</v>
@@ -5827,7 +5857,7 @@
         <v>396</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>397</v>
@@ -5865,7 +5895,7 @@
         <v>404</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>405</v>
@@ -5903,7 +5933,7 @@
         <v>411</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>422</v>
@@ -5941,7 +5971,7 @@
         <v>412</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>423</v>
@@ -6130,8 +6160,8 @@
       <c r="A91" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>11</v>
+      <c r="B91" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>456</v>
@@ -6166,7 +6196,7 @@
         <v>451</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>457</v>
@@ -6201,7 +6231,7 @@
         <v>452</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>458</v>
@@ -6236,7 +6266,7 @@
         <v>453</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>459</v>
@@ -6271,7 +6301,7 @@
         <v>454</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>460</v>
@@ -6306,7 +6336,7 @@
         <v>455</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>461</v>
@@ -6341,7 +6371,7 @@
         <v>475</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>477</v>
@@ -6376,7 +6406,7 @@
         <v>476</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>478</v>
@@ -6411,7 +6441,7 @@
         <v>483</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>478</v>
@@ -6446,7 +6476,7 @@
         <v>578</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>580</v>
@@ -6481,7 +6511,7 @@
         <v>579</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>581</v>
@@ -6516,7 +6546,7 @@
         <v>591</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>593</v>
@@ -6552,7 +6582,7 @@
         <v>592</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>594</v>
@@ -6587,8 +6617,8 @@
       <c r="A104" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>11</v>
+      <c r="B104" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>602</v>
@@ -6626,7 +6656,7 @@
         <v>610</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>612</v>
@@ -6664,7 +6694,7 @@
         <v>611</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>622</v>
@@ -6702,7 +6732,7 @@
         <v>621</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>623</v>
@@ -6740,7 +6770,7 @@
         <v>632</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>635</v>
@@ -6778,7 +6808,7 @@
         <v>634</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>636</v>
@@ -6816,7 +6846,7 @@
         <v>637</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>638</v>
@@ -6854,7 +6884,7 @@
         <v>651</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>659</v>
@@ -6892,7 +6922,7 @@
         <v>652</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>660</v>
@@ -6923,6 +6953,44 @@
       </c>
       <c r="L112" s="7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A113" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -2844,7 +2844,7 @@
   <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2906,7 +2906,7 @@
         <v>227</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -2944,7 +2944,7 @@
         <v>228</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -2982,7 +2982,7 @@
         <v>229</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -3020,7 +3020,7 @@
         <v>230</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>27</v>
@@ -3058,7 +3058,7 @@
         <v>231</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3093,7 +3093,7 @@
         <v>232</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -3128,7 +3128,7 @@
         <v>233</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>56</v>
@@ -3163,7 +3163,7 @@
         <v>234</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>57</v>
@@ -3198,7 +3198,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>58</v>
@@ -3234,7 +3234,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>59</v>
@@ -3270,7 +3270,7 @@
         <v>237</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>55</v>
@@ -3306,7 +3306,7 @@
         <v>238</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>60</v>
@@ -3342,7 +3342,7 @@
         <v>239</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>61</v>
@@ -3378,7 +3378,7 @@
         <v>240</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>62</v>
@@ -3414,7 +3414,7 @@
         <v>241</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>74</v>
@@ -3450,7 +3450,7 @@
         <v>242</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>77</v>
@@ -3486,7 +3486,7 @@
         <v>243</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>81</v>
@@ -3522,7 +3522,7 @@
         <v>244</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>82</v>
@@ -3558,7 +3558,7 @@
         <v>245</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>83</v>
@@ -3594,7 +3594,7 @@
         <v>246</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>84</v>
@@ -3630,7 +3630,7 @@
         <v>247</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>92</v>
@@ -3665,7 +3665,7 @@
         <v>248</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>92</v>
@@ -3700,7 +3700,7 @@
         <v>249</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>92</v>
@@ -3735,7 +3735,7 @@
         <v>250</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>92</v>
@@ -3770,7 +3770,7 @@
         <v>251</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>92</v>
@@ -3805,7 +3805,7 @@
         <v>252</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>92</v>
@@ -3840,7 +3840,7 @@
         <v>253</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>110</v>
@@ -3875,7 +3875,7 @@
         <v>254</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>110</v>
@@ -3911,7 +3911,7 @@
         <v>255</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>110</v>
@@ -3947,7 +3947,7 @@
         <v>256</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>110</v>
@@ -3983,7 +3983,7 @@
         <v>257</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>127</v>
@@ -4021,7 +4021,7 @@
         <v>258</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>128</v>
@@ -4059,7 +4059,7 @@
         <v>259</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>129</v>
@@ -4097,7 +4097,7 @@
         <v>260</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>153</v>
@@ -4135,7 +4135,7 @@
         <v>261</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>154</v>
@@ -4173,7 +4173,7 @@
         <v>262</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>130</v>
@@ -4211,7 +4211,7 @@
         <v>263</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>131</v>
@@ -4249,7 +4249,7 @@
         <v>264</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>132</v>
@@ -4287,7 +4287,7 @@
         <v>265</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>133</v>
@@ -4325,7 +4325,7 @@
         <v>266</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>134</v>
@@ -4363,7 +4363,7 @@
         <v>267</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>135</v>
@@ -4401,7 +4401,7 @@
         <v>268</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>160</v>
@@ -4439,7 +4439,7 @@
         <v>269</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>162</v>
@@ -4477,7 +4477,7 @@
         <v>270</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>125</v>
@@ -4515,7 +4515,7 @@
         <v>271</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>168</v>
@@ -4553,7 +4553,7 @@
         <v>272</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>177</v>
@@ -4591,7 +4591,7 @@
         <v>273</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>206</v>
@@ -4629,7 +4629,7 @@
         <v>274</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>205</v>
@@ -4667,7 +4667,7 @@
         <v>275</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>209</v>
@@ -4705,7 +4705,7 @@
         <v>276</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>208</v>
@@ -4743,7 +4743,7 @@
         <v>277</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>211</v>
@@ -4781,7 +4781,7 @@
         <v>278</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>210</v>
@@ -4819,7 +4819,7 @@
         <v>279</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>213</v>
@@ -4857,7 +4857,7 @@
         <v>280</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>212</v>
@@ -4895,7 +4895,7 @@
         <v>281</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>181</v>
@@ -4933,7 +4933,7 @@
         <v>282</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>182</v>
@@ -4971,7 +4971,7 @@
         <v>283</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>190</v>
@@ -5000,7 +5000,7 @@
         <v>284</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>190</v>
@@ -5029,7 +5029,7 @@
         <v>285</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>192</v>
@@ -5056,7 +5056,7 @@
         <v>286</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>191</v>
@@ -5085,7 +5085,7 @@
         <v>287</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>191</v>
@@ -5114,7 +5114,7 @@
         <v>288</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>193</v>
@@ -5141,7 +5141,7 @@
         <v>291</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>292</v>
@@ -5176,7 +5176,7 @@
         <v>298</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>299</v>
@@ -5211,7 +5211,7 @@
         <v>303</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>305</v>
@@ -5249,7 +5249,7 @@
         <v>304</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>312</v>
@@ -5287,7 +5287,7 @@
         <v>315</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>317</v>
@@ -5325,7 +5325,7 @@
         <v>316</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>341</v>
@@ -5363,7 +5363,7 @@
         <v>324</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>342</v>
@@ -5401,7 +5401,7 @@
         <v>325</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>345</v>
@@ -5439,7 +5439,7 @@
         <v>326</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>346</v>
@@ -5477,7 +5477,7 @@
         <v>327</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>352</v>
@@ -5515,7 +5515,7 @@
         <v>328</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>353</v>
@@ -5553,7 +5553,7 @@
         <v>329</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>354</v>
@@ -5591,7 +5591,7 @@
         <v>330</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>355</v>
@@ -5629,7 +5629,7 @@
         <v>331</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>356</v>
@@ -5667,7 +5667,7 @@
         <v>332</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>357</v>
@@ -5705,7 +5705,7 @@
         <v>333</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>358</v>
@@ -5743,7 +5743,7 @@
         <v>334</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>359</v>
@@ -5781,7 +5781,7 @@
         <v>335</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>360</v>
@@ -5819,7 +5819,7 @@
         <v>336</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>361</v>
@@ -5857,7 +5857,7 @@
         <v>396</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>397</v>
@@ -5895,7 +5895,7 @@
         <v>404</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>405</v>
@@ -5933,7 +5933,7 @@
         <v>411</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>422</v>
@@ -5971,7 +5971,7 @@
         <v>412</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>423</v>
@@ -6161,7 +6161,7 @@
         <v>450</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>456</v>
@@ -6196,7 +6196,7 @@
         <v>451</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>457</v>
@@ -6231,7 +6231,7 @@
         <v>452</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>458</v>
@@ -6266,7 +6266,7 @@
         <v>453</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>459</v>
@@ -6301,7 +6301,7 @@
         <v>454</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>460</v>
@@ -6336,7 +6336,7 @@
         <v>455</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>461</v>
@@ -6371,7 +6371,7 @@
         <v>475</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>477</v>
@@ -6406,7 +6406,7 @@
         <v>476</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>478</v>
@@ -6441,7 +6441,7 @@
         <v>483</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>478</v>
@@ -6476,7 +6476,7 @@
         <v>578</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>580</v>
@@ -6511,7 +6511,7 @@
         <v>579</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>581</v>
@@ -6546,7 +6546,7 @@
         <v>591</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>593</v>
@@ -6582,7 +6582,7 @@
         <v>592</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>594</v>
@@ -6618,7 +6618,7 @@
         <v>601</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>602</v>
@@ -6656,7 +6656,7 @@
         <v>610</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>612</v>
@@ -6694,7 +6694,7 @@
         <v>611</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>622</v>
@@ -6732,7 +6732,7 @@
         <v>621</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>623</v>
@@ -6770,7 +6770,7 @@
         <v>632</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>635</v>
@@ -6808,7 +6808,7 @@
         <v>634</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>636</v>
@@ -6846,7 +6846,7 @@
         <v>637</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>638</v>
@@ -6884,7 +6884,7 @@
         <v>651</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>659</v>
@@ -6922,7 +6922,7 @@
         <v>652</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>660</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -2411,10 +2411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select * from $scalar055 where amount=888.88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_110.csv</t>
   </si>
   <si>
@@ -2464,6 +2460,10 @@
   </si>
   <si>
     <t>select id,age,gender,hobby,color_index$distance from vector($mixindex018, color, array[0.009107396006584167,-0.4928479492664337,-0.06084398180246353,0.11279209703207016,0.42720580101013184,-0.5535244345664978,-0.051339954137802124,0.3442928194999695,0.397807240486145,0.14437393844127655,-0.27258825302124023,0.11299128085374832,0.26662662625312805,-0.3028406798839569,-0.06034494936466217,-0.20874223113059998,0.710351824760437,0.03114473819732666,-0.10010837763547897,-0.499957799911499,-0.3172328472137451,0.18967600166797638,0.16708506643772125,-0.31831443309783936,-0.3038794696331024,0.517365038394928,-0.1310274302959442,0.6051051020622253,-0.29701799154281616,-0.11700791120529175,-0.49527180194854736,0.3499431014060974,-0.05310584604740143,0.11840163171291351,-0.6476613283157349,-0.40672868490219116,0.15504536032676697,-0.04425550997257233,-0.017758861184120178,-0.4650961756706238,-0.367722749710083,0.4912892282009125,0.15679343044757843,-1.2024909257888794,-0.6475555896759033,0.8445031642913818,-0.3021777868270874,0.0012783706188201904,-0.1028386726975441,-0.028430849313735962,0.4390820562839508,0.17291557788848877,0.02308507263660431,-0.2666246294975281,0.030758768320083618,0.3070322275161743,0.7922346591949463,0.15251073241233826,0.3876311779022217,-0.12918725609779358,0.5775445699691772,0.13809040188789368,0.3011755347251892,-0.08841019868850708,-0.2804226875305176,0.08000586181879044,0.23992058634757996,0.30137330293655396,-0.573534369468689,-0.08557131141424179,-0.009991265833377838,0.22057701647281647,-0.07465316355228424,-0.1380939483642578,0.12757709622383118,-0.1524963080883026,-0.21346122026443481,-0.21207493543624878,-0.299119770526886,-0.105656199157238,0.2978556156158447,0.27103662490844727,-0.04677818715572357,-0.25942736864089966,0.23926180601119995,0.06485702842473984,-0.2326173037290573,-0.7795956134796143,0.5515224933624268,-0.13598020374774933,-0.3016166687011719,-0.23002196848392487,-5.020496845245361,1.1768553256988525,0.04210896044969559,0.05429087206721306,-0.12462489306926727,-0.2512921392917633,0.025492563843727112,-0.014712274074554443,0.3395729660987854,0.36077940464019775,0.710265040397644,0.5866747498512268,0.3867844343185425,0.16563571989536285,-2.2621219158172607,-0.31919386982917786,-0.29929596185684204,-0.1239459365606308,-0.019464053213596344,-0.18152916431427002,0.015370100736618042,-0.39437994360923767,-0.3952904939651489,-0.17863686382770538,0.3756665587425232,0.01915770024061203,-0.0487205907702446,0.5403110980987549,0.13948170840740204,0.7490887641906738,0.218780517578125,0.21333663165569305,0.6106190085411072,-0.5787690877914429,0.005233213305473328,-0.02014821767807007,-0.37207454442977905,0.04737117886543274,0.3805462121963501,0.022129982709884644,-0.08685516566038132,0.8918148279190063,0.332944393157959,-0.17890742421150208,-0.01971307396888733,-0.49113523960113525,-0.16974413394927979,0.29028767347335815,-0.0854928120970726,-0.28040117025375366,0.27752572298049927,0.19523702561855316,-0.010701179504394531,0.41232433915138245,-0.2981152832508087,0.17831067740917206,0.23491880297660828,0.5166872143745422,0.03726338595151901,-0.09167103469371796,-0.14614176750183105,0.0835254117846489,-0.526052713394165,0.5634927749633789,0.4244139492511749,0.08627873659133911,0.11286911368370056,-0.09144455194473267,0.19640317559242249,-0.28446879982948303,-0.14722681045532227,-0.15440787374973297,0.38722527027130127,0.2799495756626129,0.2579476833343506,0.07801324129104614,-0.03614184260368347,0.2691837549209595,-0.22063779830932617,0.20414650440216064,0.290392130613327,-0.23576216399669647,0.6217473745346069,-0.36090806126594543,-0.5171005129814148,-0.0978025570511818,-0.22199128568172455,0.11597487330436707,-0.10627104341983795,0.0140666663646698,-0.3552021086215973,0.04552648216485977,0.028643697500228882,-0.2697099447250366,-0.08528557419776917,-0.3565848469734192,-0.6836068034172058,0.4241693317890167,0.3769601583480835,-0.3473547399044037,-0.28350770473480225,0.4194734990596771,0.16857166588306427,0.24369701743125916,0.7187827229499817,-0.24069659411907196,-0.612932026386261,-0.02567557990550995,0.025800958275794983,-0.2763204872608185,0.06153678894042969,0.42983344197273254,-0.27653318643569946,0.07124429941177368,-0.21047277748584747,-0.19868281483650208,-0.40652528405189514,-0.2593531012535095,0.35989561676979065,0.7571883797645569,0.6407842636108398,0.29625385999679565,0.4905804395675659,-0.11757611483335495,-0.15926161408424377,0.05945210158824921,0.9470091462135315,-0.2651394009590149,0.24507103860378265,0.012639820575714111,-0.16477082669734955,0.023227810859680176,0.3517795503139496,0.061285004019737244,0.23400992155075073,-0.004913773387670517,0.10474497079849243,0.28454095125198364,0.2646726965904236,0.056223608553409576,0.14024418592453003,0.09913889318704605,0.37895309925079346,0.4080517888069153,0.23690679669380188,-0.9799992442131042,0.6079041361808777,-0.8063328862190247,-0.18007591366767883,0.4238743185997009,0.5677311420440674,0.07879464328289032,-0.6451236009597778,0.3615572452545166,-0.6502392292022705,-0.13250525295734406,0.022514693439006805,0.23416417837142944,-0.31921306252479553,0.015400782227516174,0.3049747347831726,-0.49025920033454895,0.6232213377952576,-0.17872992157936096,0.22888170182704926,0.06563788652420044,-0.09811440110206604,0.5739450454711914,0.19145318865776062,0.19296371936798096,0.1447419375181198,0.6271354556083679,-0.40667158365249634,0.14535176753997803,0.08282049000263214,-0.2226463258266449,0.19218046963214874,0.18990464508533478,0.366453617811203,0.1181904524564743,0.31326085329055786,0.2777858078479767,0.18976512551307678,0.12058664858341217,0.3834364712238312,-0.25943732261657715,0.15866270661354065,-0.14582546055316925,0.2993849217891693,0.3625524640083313,-0.5657874345779419,0.3584221601486206,0.6659886837005615,0.5365152359008789,0.15160009264945984,-0.0038372427225112915,-0.03198322653770447,-0.41171130537986755,0.35392409563064575,0.4899391531944275,-0.44131115078926086,-0.03127241134643555,-0.08564724773168564,-0.2810729742050171,-0.1650094985961914,0.41276872158050537,-0.20266728103160858,-0.21721073985099792,0.06289903819561005,-0.1000848263502121,0.3060847520828247,-0.1798524409532547,-0.053416907787323,-0.17533081769943237,0.4803808927536011,0.6472082734107971,-0.20990946888923645,-0.08272083848714828,0.2603752315044403,0.2435430884361267,0.8928165435791016,0.04669277369976044,0.06500576436519623,0.0932016521692276,0.4320862591266632,-0.19006873667240143,-0.4583078622817993,-0.06959453225135803,0.41687387228012085,1.279518961906433,-0.09231052547693253,0.39603978395462036,0.4426204264163971,0.1414766013622284,0.14081603288650513,0.029098331928253174,-0.0008250568062067032,-0.04960125684738159,0.10457373410463333,0.5750452876091003,-0.23702768981456757,0.07400791347026825,-0.39593395590782166,0.2875250577926636,0.40632858872413635,0.4273437261581421,-0.15563148260116577,-0.1943039447069168,0.09682011604309082,0.2771073579788208,-0.17696169018745422,-0.15394936501979828,-0.028617314994335175,-0.6125500202178955,0.055850833654403687,-0.33313047885894775,-0.18644365668296814,0.05475170910358429,0.08947843313217163,-0.07653182744979858,0.09828981757164001,-0.03744521737098694,-0.09890225529670715,0.3104325830936432,0.3743216395378113,0.7847214937210083,0.22328320145606995,-0.007173389196395874,0.2743714451789856,0.3419463038444519,-0.4041624963283539,0.8219678401947021,-0.937566339969635,-0.0877365693449974,0.08319441229104996,0.519494891166687,0.14611385762691498,0.6832436919212341,0.08052428811788559,0.4532940685749054,-0.11158505082130432,0.05747853219509125,-0.03627094626426697,0.29975807666778564,0.3184080719947815,-0.15185518562793732,-0.17107611894607544,-0.26622259616851807,-0.041283462196588516,0.2775959074497223,0.5768389701843262,-0.19857929646968842,-0.383053183555603,-0.4868699014186859,0.3679580092430115,0.31410154700279236,0.45399945974349976,0.565982460975647,-0.9887039661407471,-0.5410878658294678,-0.25793322920799255,-0.4151421785354614,0.9581260085105896,0.08737964928150177,0.12770259380340576,0.17853334546089172,-0.47929897904396057,-0.18773919343948364,-0.06778784096240997,0.2790369987487793,0.3038453459739685,-0.00035012513399124146,0.21557708084583282,-0.2987268567085266,-0.37862226366996765,0.11563920229673386,0.37216106057167053,0.07540548592805862,-0.14644283056259155,0.36704716086387634,0.27644112706184387,0.23733626306056976,-0.15499460697174072,0.18270283937454224,0.286896288394928,0.0611887089908123,-0.003465220332145691,-0.44345101714134216,-0.48094767332077026,-0.05870349705219269,0.2203047126531601,0.23658716678619385,0.14524224400520325,-0.3096632957458496,-0.42239847779273987,0.14180953800678253,-1.9080333709716797,0.7268998026847839,0.21734172105789185,0.3595874309539795,-0.24850676953792572,-0.0687989890575409,-0.2876971960067749,-0.008909806609153748,0.06251184642314911,0.17282895743846893,-0.24134333431720734,-0.34526604413986206,-0.6466650366783142,0.42585867643356323,0.5730605125427246,0.02659779042005539,0.3097115755081177,0.29858189821243286,-0.07963889837265015,-0.2749827802181244,-0.03155626356601715,-0.037864506244659424,0.11886607110500336,0.0742151141166687,0.454728901386261,0.11392711102962494,-0.0018827617168426514,-0.6696452498435974,0.3057352304458618,0.18775613605976105,0.07171911001205444,0.1750405877828598,-0.2657383978366852,0.24411165714263916,0.2512362003326416,-0.10027620196342468,0.3601529002189636,0.37912803888320923,-0.06990914046764374,-0.3299768567085266,-0.125762477517128,-0.2828892767429352,0.15549014508724213,0.13161194324493408,0.39875492453575134,-0.4680383801460266,-0.13426533341407776,0.2584708333015442,0.01619536429643631,0.26572245359420776,-0.3058027923107147,0.0349903404712677,-0.5298135280609131,-0.5118231177330017,0.35788029432296753,0.25099503993988037,-0.3409276306629181,0.0350998193025589,0.12917760014533997,0.04360932856798172,0.03863629698753357,-0.12423983961343765,-0.44539687037467957,0.06586220115423203,0.29936468601226807,-0.7707462310791016,-0.130367249250412,0.18743553757667542,-0.2837158441543579,0.07794137299060822,-0.24770815670490265,0.4286563992500305,-0.13582590222358704,0.13121500611305237,-0.001750364899635315,0.3049774765968323,-0.39047953486442566,0.24318626523017883,-0.4263252913951874,0.2714003324508667,0.17210617661476135,0.6087738871574402,-0.18345880508422852,0.11825743317604065], 10) where age&gt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name,age,gmt,price,amount,address,birthday,create_time,update_time,zip_code,is_delete from $scalar055 where amount=888.88</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2843,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6887,7 +6887,7 @@
         <v>11</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>603</v>
@@ -6908,10 +6908,10 @@
         <v>656</v>
       </c>
       <c r="J111" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="K111" s="7" t="s">
         <v>657</v>
-      </c>
-      <c r="K111" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>19</v>
@@ -6925,7 +6925,7 @@
         <v>11</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>603</v>
@@ -6940,16 +6940,16 @@
         <v>654</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>656</v>
       </c>
       <c r="J112" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K112" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="K112" s="7" t="s">
-        <v>663</v>
       </c>
       <c r="L112" s="7" t="s">
         <v>19</v>
@@ -6957,13 +6957,13 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>603</v>
@@ -6972,22 +6972,22 @@
         <v>604</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="H113" s="1" t="s">
+      <c r="J113" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K113" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>670</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>36</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="723">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2465,6 +2465,193 @@
   <si>
     <t>select id,name,age,gmt,price,amount,address,birthday,create_time,update_time,zip_code,is_delete from $scalar055 where amount=888.88</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_113</t>
+  </si>
+  <si>
+    <t>scalar056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar056 set name='Java' where id between 5 and 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name from $scalar056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_113.csv</t>
+  </si>
+  <si>
+    <t>updel_114</t>
+  </si>
+  <si>
+    <t>表hash分区更新普通字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表hash分区更新索引字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar056 set age=100 where age between 10 and 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,age from $scalar056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_114.csv</t>
+  </si>
+  <si>
+    <t>updel_115</t>
+  </si>
+  <si>
+    <t>表hash分区删除数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar056 where id in (1,3,5,7,9,10,11,13,15,17,19,21,23,25,27,29,31,33,35,37,39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_115.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_116</t>
+  </si>
+  <si>
+    <t>updel_117</t>
+  </si>
+  <si>
+    <t>updel_118</t>
+  </si>
+  <si>
+    <t>标量索引hash分区更新普通字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标量索引hash分区更新索引字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标量索引hash分区删除数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar057 set name='Java' where id between 5 and 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar057 set age=100 where age between 10 and 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name from $scalar057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,age from $scalar057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar057 where id in (1,3,5,7,9,10,11,13,15,17,19,21,23,25,27,29,31,33,35,37,39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_116.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_117.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_118.csv</t>
+  </si>
+  <si>
+    <t>updel_119</t>
+  </si>
+  <si>
+    <t>updel_120</t>
+  </si>
+  <si>
+    <t>updel_121</t>
+  </si>
+  <si>
+    <t>表range分区更新普通字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表range分区更新索引字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表range分区删除数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar058 set name='Java' where id between 5 and 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar058 set age=100 where age between 10 and 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar058 where id in (1,3,5,7,9,10,11,13,15,17,19,21,23,25,27,29,31,33,35,37,39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name from $scalar058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,age from $scalar058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_119.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_120.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_121.csv</t>
   </si>
 </sst>
 </file>
@@ -2841,10 +3028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6991,6 +7178,339 @@
       </c>
       <c r="L113" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A114" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A115" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A116" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="L116" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A117" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="L117" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A118" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="L118" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A119" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="L119" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A120" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="L120" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A121" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="L121" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A122" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="L122" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/sql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="767">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2652,6 +2652,166 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_121.csv</t>
+  </si>
+  <si>
+    <t>updel_122</t>
+  </si>
+  <si>
+    <t>updel_123</t>
+  </si>
+  <si>
+    <t>主键等值逻辑与删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键等值逻辑或删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_124</t>
+  </si>
+  <si>
+    <t>updel_125</t>
+  </si>
+  <si>
+    <t>索引列等值逻辑与删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引列等值逻辑或删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar058 where id=8 and id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar058 where id=8 and id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_122.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_123.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_124.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_125.csv</t>
+  </si>
+  <si>
+    <t>delete from $scalar058 where id=8 or id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar058 where age=-18 and age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar058 where age=-18 or age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar058 where id=8 or id=28 or id=18 or id=38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar058 where age=-18 and age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age from $scalar058 where age=-18 and age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age from $scalar058 where age=-18 or age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_126</t>
+  </si>
+  <si>
+    <t>updel_127</t>
+  </si>
+  <si>
+    <t>updel_128</t>
+  </si>
+  <si>
+    <t>updel_129</t>
+  </si>
+  <si>
+    <t>主键等值逻辑与更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键等值逻辑或更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引列等值逻辑与更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引列等值逻辑或更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar058 set age=888 where id=8 and id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age from $scalar058 where id=8 and id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_126.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_127.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_128.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_129.csv</t>
+  </si>
+  <si>
+    <t>update $scalar058 set age=888 where id=8 or id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age from $scalar058 where id=8 or id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar058 set age=888 where age=-18 and age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar058 set age=888 where age=-18 or age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar058 where age=-18 or age=18 or age=888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3028,10 +3188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I128" sqref="I128"/>
+    <sheetView tabSelected="1" topLeftCell="D94" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3043,7 +3203,7 @@
     <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38" style="1" customWidth="1"/>
     <col min="11" max="12" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -7510,6 +7670,287 @@
         <v>722</v>
       </c>
       <c r="L122" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A123" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A124" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="L124" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A125" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A126" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A127" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="L127" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A128" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A129" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A130" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="L130" s="7" t="s">
         <v>19</v>
       </c>
     </row>
